--- a/biology/Biologie cellulaire et moléculaire/Induction_(génétique)/Induction_(génétique).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Induction_(génétique)/Induction_(génétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Induction_(g%C3%A9n%C3%A9tique)</t>
+          <t>Induction_(génétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une induction enzymatique décrit l'induction de l'expression génique d'une enzyme. L'induction enzymatique augmente la concentration d'une enzyme. En complément de l'induction enzymatique, l'activation enzymatique entraîne une augmentation de l'activité enzymatique. En biochimie, une substance qui provoque l'induction est appelée inducteur. Une répression de l'expression des gènes, contraire à l'induction enzymatique, est obtenue par des répresseurs, et une inhibition enzymatique peut également se produire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Induction_(g%C3%A9n%C3%A9tique)</t>
+          <t>Induction_(génétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Induction enzymatique en médecine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'effet de l'induction est utilisé dans la dégradation des médicaments et en cas d'intoxication, afin de biotransformer les substances toxiques le plus rapidement possible. L'induction de l'enzyme cytochrome P450 par le millepertuis en est un exemple. Le cytochrome P450 est responsable du métabolisme de nombreux médicaments. Les principes actifs tels que Marcumar, les médicaments HAART, les antibiotiques ou certains contraceptifs oraux peuvent ainsi être dégradés plus rapidement par l'organisme humain. Il est donc possible qu'en cas de prise simultanée de millepertuis, par exemple, ces médicaments n'agissent pas suffisamment pendant la période souhaitée (pilule = 24 heures). Les conséquences possibles de la prise combinée d'un inducteur enzymatique et de certains immunosuppresseurs sont bien plus dévastatrices. Ces derniers sont souvent prescrits après une transplantation d'organe et empêchent le rejet des organes implantés.
 Les inhibiteurs enzymatiques peuvent être utilisés pour empêcher que les substances médicamenteuses ne soient dégradées trop rapidement. Cela permet d'économiser l'utilisation de médicaments, par exemple pour les substances actives très coûteuses ou pour les substances actives dont les effets secondaires sont plus prononcés à des doses plus élevées.
